--- a/biology/Médecine/Siegfried_Ruff/Siegfried_Ruff.xlsx
+++ b/biology/Médecine/Siegfried_Ruff/Siegfried_Ruff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siegfried Ruff, né le 19 février 1907 à Friemersheim, quartier de Duisbourg et mort le 22 avril 1989 à Bonn, est un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l'université de Bonn et à l'université de Berlin. Il devient médecin en 1934. En 1937, il rejoint la NSDAP et il devient membre de l'Académie nationale de recherche en aéronautique.
 En 1942, il travaille sur des expériences humaines et est impliqué dans des expériences à Dachau, dont l'essai d'une chambre à vide pour des tests de pression.
